--- a/Shopcuup/detailpagedata.xlsx
+++ b/Shopcuup/detailpagedata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +477,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eWide set straps and a straight neckline create a flattering effect\/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eDeep V silhouette creates natural shaping and flattering, graphic lines\/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -499,12 +499,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eDeep V silhouette creates natural shaping and flattering, graphic lines\/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -516,22 +516,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>p\u003eThis bundle features the Plunge and Thong. The bold lines and sheer, sexy support of the Plunge complement the minimal coverage of the Thong for a modern and comfortable everyday foundation.br\u003e\/p\u003e\nul\u003e\nli\u003eBundle includes the Plunge (Carmine) and a three-pack of the Thong (Carmine, Fuchsia, Sand)The Plunge is a pared-down, deep V silhouette made for sheer, sexy supportThe Thong is a mid rise style that offers a seamless appearance under clothing\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Thong means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eWide set straps and a straight neckline create a flattering effect\/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering, graphic lines\n\/span\u003e\/li\u003e li\u003espan\u003eSoft, sheer, and breathable Power Mesh delivers support without the weight\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -560,22 +560,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>p\u003eThis bundle features the Plunge and Thong. The bold lines and sheer, sexy support of the Plunge complement the minimal coverage of the Thong for a modern and comfortable everyday foundation.br\u003e\/p\u003e\nul\u003e\nli\u003eBundle includes the Plunge in Black and a three-pack of the Thong (Black, Espresso, Leopard)The Plunge is a pared-down, deep V silhouette made for sheer, sexy supportThe Thong is a mid rise style that offers a seamless appearance under clothing\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Thong means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
         </is>
       </c>
     </row>
@@ -587,12 +587,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eSoft, sheer, and breathable Power Mesh delivers support without the weight \n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Deep V silhouette creates natural shaping and flattering, graphic lines \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -604,17 +604,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>184.0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>p data-mce-fragment=\"1\"\u003espan data-mce-fragment=\"1\"\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\/span\u003e\/p\u003e\nul data-mce-fragment=\"1\"\u003e\nli data-mce-fragment=\"1\"\u003espan data-mce-fragment=\"1\"\u003eWide set straps and a straight neckline create a flattering effect\/span\u003e\/li\u003e\nli data-mce-fragment=\"1\"\u003espan data-mce-fragment=\"1\"\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003e\/li\u003e\nli data-mce-fragment=\"1\"\u003espan data-mce-fragment=\"1\"\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday. Choose your favorite color from our selection.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003ePack includes three Plunge bras\/span\u003espan\u003eDeep V silhouette creates natural shaping and flattering, graphic lines\/span\u003espan\u003eSoft, sheer, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -626,154 +626,154 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eWide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Deep V silhouette creates natural shaping and flattering, graphic lines \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eWide set straps and a straight neckline create a flattering effect\/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette is an easy-to-wear, elevated cut for everyday. A deep V neckline naturally shapes and flatters, while lustrous and stretchy Satin creates a luxurious feel.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering lines\n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette is an easy-to-wear, elevated cut for everyday. A deep V neckline naturally shapes and flatters, while lustrous and stretchy Satin creates a luxurious feel.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering lines\n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>118.0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>p\u003eThis set features the Satin Balconette and Satin High Cut in Crystal Shine. The Balconetteâ€™s iconic and stylish lines and the High Cutâ€™s figure-flattering shape are accentuated by smooth, stretchy, silky Satin.br\u003e\/p\u003e\nul\u003e\nli\u003eSet includes the Satin Balconette and Satin High Cut in Crystal ShineThe Satin Balconette frames, flatters, and shapes for stylish support with lightweight Mesh lining and opaque coverageThe Satin High Cut hits right at the waist and high at the hip with cheeky back end coverageOur Satin material flaunts lustrous shine, smooth feel and performance stretch\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>This bundle features the Plunge, Highwaist, and Fishnet Tights. Equal parts minimal and modern, these silhouettes offer a bold, sexy, and stylishly supportive foundation.br data-mce-fragment=Bundle includes the Plunge, Highwaist, and Fishnet TightsThe Plunge is a pared-down, deep V silhouette made for sheer, sexy support in Power MeshThe Highwaist is a high rise, high cut style with cheeky back end coverage in soft, breathable ModalThe Fishnet Tights feature an iconic open-knit pattern and are made from ECONYL® regenerated nylon</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eIf you are in between cup sizes in the Balconette, we recommend you go up a cup size\/li\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe tailored construction of the High Cut creates a streamlined finish that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003eli\u003eThe Fishnet Tight’s high rise and soft, elasticated waistband ensure stay-in-place comfort\/li\u003eli\u003eThe fit of the tights is based on a shared sizing chart with our underwear; size up or down depending on height\/li\u003eli\u003ePamela is wearing a Small in the Fishnet Tights\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003eTights: 82%  ECONYL® regenerated nylon 12% Elastane\/p\u003ep\u003eTights Care: Machine or hand wash cold. Lay flat to dry.\/p\u003e\np\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>This set features the Satin Plunge and Satin High Cut in Crystal Shine. In smooth, stretchy, silky Satin, the bold lines and sexy support of the Plunge complement the figure-flattering shape of the High Cut.br data-mce-fragment=Set includes the Satin Plunge and Satin High Cut in Crystal ShineThe Satin Plunge is a deep V silhouette made for sexy support with lightweight Mesh lining and opaque coverageThe Satin High Cut hits right at the waist and high at the hip with cheeky back end coverageOur Satin material flaunts lustrous shine, smooth feel and performance stretch</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eIf you are in between cup sizes in the Plunge, we recommend you go up a cup size in Satin\/li\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eThe tailored construction of the High Cut creates a streamlined finish that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eSoft, sheer, and breathable Power Mesh delivers support without the weight \n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+          <t>This set features the Satin Plunge and Satin String Thong in Black Shine. Two minimal yet elevated styles with natural shaping and flattering, modern lines in smooth, stretchy, silky Satin.br data-mce-fragment=Set includes the Satin Plunge and Satin String Thong in Black ShineThe Satin Plunge is a deep V silhouette made for sexy support with lightweight Mesh lining and opaque coverageThe Satin String Thong offers our most minimal side and back end coverage for a seamless appearance under clothingOur Satin material flaunts lustrous shine, smooth feel and performance stretch</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eIf you are in between cup sizes in the Plunge, we recommend you go up a cup size in Satin\/li\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eThe elevated construction of the String Thong means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>p\u003eThis bundle features the Plunge and Highwaist. In sheer, sexy Power Mesh and soft, breathable Modal, they bring stylish support and elevated comfort to your first layer.br\u003e\/p\u003e\nul\u003e\nli\u003eBundle includes the Plunge and a three-pack of the HighwaistThe Plunge is a pared-down, deep V silhouette made for sheer, sexy supportThe Highwaist is a high rise, high cut style that with cheeky back end coverage\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
         </is>
       </c>
     </row>
@@ -785,12 +785,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Deep V silhouette creates natural shaping and flattering, graphic lines \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -807,12 +807,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Deep V silhouette creates natural shaping and flattering, graphic lines \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Deep V silhouette creates natural shaping and flattering, graphic lines \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -846,22 +846,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>184.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. Choose your favorite color from our selection.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003ePack includes three Balconette bras\/span\u003e\/li\u003e li\u003espan\u003eWide set straps and a straight neckline create a flattering effect\/span\u003e\/li\u003e li\u003espan\u003eSoft, sheer, and breathable Power Mesh delivers support without the weight\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette is an easy-to-wear, elevated cut for everyday. A deep V neckline naturally shapes and flatters, while lustrous and stretchy Satin creates a luxurious feel.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering lines\n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
@@ -873,12 +873,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Deep V silhouette creates natural shaping and flattering, graphic lines \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -890,22 +890,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eWide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Deep V silhouette creates natural shaping and flattering, graphic lines \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eWide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette is an easy-to-wear, elevated cut for everyday. A deep V neckline naturally shapes and flatters, while lustrous and stretchy Satin creates a luxurious feel.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering lines\n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -934,132 +934,132 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>This bundle features the Balconette, String Thong, and Fishnet Tights. Supportive, sexy, and stylish, these silhouettes offer a bold and timeless foundation.br data-mce-fragment=Bundle includes the Balconette, String Thong, and Fishnet TightsThe Balconette is a bold style statement that iconically frames, flatters, and shapes in Power MeshThe String Thong is a barely-there style with our most minimal side and back coverage in soft, breathable ModalThe Fishnet Tights feature an iconic open-knit pattern and are made from ECONYL® regenerated nylon</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Deep V silhouette creates natural shaping and flattering, graphic lines \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe elevated construction of the String Thong means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003eli\u003eThe Fishnet Tight’s high rise and soft, elasticated waistband ensure stay-in-place comfort\/li\u003eli\u003eThe fit of the tights is based on a shared sizing chart with our underwear; size up or down depending on height\/li\u003eli\u003eMolly is wearing a Medium in the Fishnet Tights\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>p\u003eTights: 82%  ECONYL® regenerated nylon 12% Elastane\/p\u003ep\u003eTights Care: Machine or hand wash cold. Lay flat to dry.\/p\u003e\np\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>This set features the Satin Balconette and Satin String Thong in Garnet Shine. The Balconette’s iconic and framing lines are a stylish match for the String Thong’s barely there finish and modern feel in smooth, stretchy, silky Satin.br data-mce-fragment=Set includes the Satin Balconette and Satin String Thong in Garnet ShineThe Satin Balconette frames, flatters, and shapes for stylish support with lightweight Mesh lining and opaque coverageThe Satin String Thong offers our most minimal side and back end coverage for a seamless appearance under clothingOur Satin material flaunts lustrous shine, smooth feel and performance stretch</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Deep V silhouette creates natural shaping and flattering, graphic lines \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eIf you are in between cup sizes in the Balconette, we recommend you go up a cup size in Satin\/li\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe elevated construction of the String Thong means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>This set features the Satin Balconette and Satin High Cut in Black Shine. The Balconette’s iconic and stylish lines and the High Cut’s figure-flattering shape are accentuated by smooth, stretchy, silky Satin.br data-mce-fragment=Set includes the Satin Balconette and Satin High Cut in Black ShineThe Satin Balconette frames, flatters, and shapes for stylish support with lightweight Mesh lining and opaque coverageThe Satin High Cut hits right at the waist and high at the hip with cheeky back end coverageOur Satin material flaunts lustrous shine, smooth feel and performance stretch</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eDeep V silhouette creates natural shaping and flattering, graphic lines\/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eIf you are in between cup sizes in the Balconette, we recommend you go up a cup size\/li\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe tailored construction of the High Cut creates a streamlined finish that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>This bundle features the Balconette and Thong. The Balconette is a bold style statement in sheer Power Mesh and the Thong is a minimal coverage essential in soft, breathable Modal.br data-mce-fragment=Bundle includes the Balconette and a three-pack of the ThongThe Balconette is a bold style statement that iconically frames, flatters, and shapesThe Thong is a mid rise style that offers a seamless appearance under clothing</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering, graphic lines\n\/span\u003e\/li\u003e li\u003espan\u003eSoft, sheer, and breathable Power Mesh delivers support without the weight\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Thong means a no-dent, high-stretch waistband that’s distraction-free\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003eli\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>p\u003eThis bundle features the Balconette and Highwaist. Two vintage-inspired silhouettes defined by stylish lines and a flattering fit in sheer, sexy Power Mesh and soft, breathable Modal.br\u003e\/p\u003e\nul\u003e\nli\u003eBundle includes the Balconette (Fuchsia) and a three-pack of the Highwaist (Carmine, Fuchsia, Sand)The Balconette is a bold style statement that iconically frames, flatters, and shapesThe Highwaist is a high rise, high cut style with cheeky back end coverage\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eDeep V silhouette creates natural shaping and flattering, graphic lines\/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003eli\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eWide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette offers the freedom of a bralette, with the stability of an underwire bra. A deep V neckline naturally shapes and flatters to create an effortlessly stylish, feminine cut for everyday.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eDeep V silhouette creates natural shaping and flattering, graphic lines\/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1071,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>p\u003espan\u003eWide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+          <t>p\u003espan\u003eThis sexy, pared down silhouette is an easy-to-wear, elevated cut for everyday. A deep V neckline naturally shapes and flatters, while lustrous and stretchy Satin creates a luxurious feel.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering lines\n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1088,22 +1088,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>This bundle features the Balconette and Highwaist. Two vintage-inspired silhouettes defined by stylish lines and a flattering fit in sheer, sexy Power Mesh and soft, breathable Modal and Lurex. Choose your favorite colors from our collection.br data-mce-fragment=Bundle includes the Balconette and a three-pack of the HighwaistThe Balconette is a bold style statement that iconically frames, flatters, and shapesThe Highwaist is a high rise, high cut style with cheeky back end coverage</t>
+          <t>This sexy, pared down silhouette is an easy-to-wear, elevated cut for everyday. A deep V neckline naturally shapes and flatters, while lustrous and stretchy Satin creates a luxurious feel. Choose your favorite color from our selection.br data-mce-fragment=Pack includes two Plunge brasDeep V silhouette creates natural shaping and flattering linesMade from smooth, lustrous Satin for performance stretch and supreme wearabilityLightly lined with Mesh for all-day breathability and opaque nipple coverageLightweight underwire is flexible and distraction-free: no poking, no digging</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe elevated construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003ep\u003eModal: 88% Modal\/12% Elastane\/p\u003ep\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003ep\u003eLurex: 78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eLurex care: Machine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
@@ -1115,61 +1115,6767 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Wide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit. Choose your favorite color from our selection.br data-mce-fragment=Pack includes two Balconette brasIf you are in between cup sizes, we recommend you go up a cup sizeWide set straps and a straight neckline create a flattering effectMade from smooth, lustrous Satin for performance stretch and supreme wearabilityLightly lined with Mesh for all-day breathability and opaque nipple coverageLightweight underwire is flexible and distraction-free: no poking, no digging</t>
+          <t>This sexy, pared down silhouette is an easy-to-wear, elevated cut for everyday. A deep V neckline naturally shapes and flatters in lustrous, stretchy Satin and sheer, sexy Power Mesh. Choose your favorite color from our selection.br data-mce-fragment=Pack includes two Plunge brasIf you are in between cup sizes, we recommend you go up a cup size in SatinDeep V silhouette creates natural shaping and flattering, graphic linesSoft, sheer, and breathable Power Mesh delivers support without the weightSmooth, stretchy Satin is lined with Power Mesh for opaque coverage and breathabilityLightweight underwire is flexible and distraction-free: no poking, no digging</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>p84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003ep\u003eSatin: 84% Polyamide 16% Lycra\/p\u003ep\u003eSatin care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Designed to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame and flatter in lustrous, stretchy Satin and sheer, sexy Power Mesh. Choose your favorite color from our selection.br data-mce-fragment=Pack includes two Balconette brasIf you are in between cup sizes, we recommend you go up a cup size in SatinWide set straps and a straight neckline create a flattering effectSoft, sheer, and breathable Power Mesh delivers support without the weightSmooth, stretchy Satin is lined with Power Mesh for opaque coverage and breathabilityLightweight underwire is flexible and distraction-free: no poking, no digging</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003ep\u003eSatin: 84% Polyamide 16% Lycra\/p\u003ep\u003eSatin care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
-        </is>
-      </c>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoop’s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Rounded neckline with smoothing, unlined cups that seamlessly extend into the straps for clean lines and flattering shaping. \/span\u003espan\u003eMade from buttery soft opaque Microfiber for adaptable stretch, comfort, and nipple coverage \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoop’s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Rounded neckline with smoothing, unlined cups that seamlessly extend into the straps for clean lines and flattering shaping. \/span\u003espan\u003eMade from buttery soft opaque Microfiber for adaptable stretch, comfort, and nipple coverage \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoop’s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Rounded neckline with smoothing, unlined cups that seamlessly extend into the straps for clean lines and flattering shaping. \/span\u003espan\u003eMade from buttery soft opaque Microfiber for adaptable stretch, comfort, and nipple coverage \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoop’s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Rounded neckline with smoothing, unlined cups that seamlessly extend into the straps for clean lines and flattering shaping. \/span\u003espan\u003eMade from buttery soft opaque Microfiber for adaptable stretch, comfort, and nipple coverage \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoop’s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Rounded neckline with smoothing, unlined cups that seamlessly extend into the straps for clean lines and flattering shaping. \/span\u003espan\u003eMade from buttery soft opaque Microfiber for adaptable stretch, comfort, and nipple coverage \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoopâ€™s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. Choose your favorite color from our selection.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003ePack includes three Scoop bras\/span\u003e\/li\u003e li\u003espan\u003eRounded neckline and molded cups seamlessly extend into the straps for clean lines and flattering shaping\/span\u003e\/li\u003e li\u003espan\u003eMade from buttery soft, opaque Microfiber for adaptable stretch, comfort, and nipple coverage\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>p\u003e 83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoop’s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Rounded neckline with smoothing, unlined cups that seamlessly extend into the straps for clean lines and flattering shaping. \/span\u003espan\u003eMade from buttery soft opaque Microfiber for adaptable stretch, comfort, and nipple coverage \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoop’s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Rounded neckline with smoothing, unlined cups that seamlessly extend into the straps for clean lines and flattering shaping. \/span\u003espan\u003eMade from buttery soft opaque Microfiber for adaptable stretch, comfort, and nipple coverage \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoop’s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Rounded neckline with smoothing, unlined cups that seamlessly extend into the straps for clean lines and flattering shaping. \/span\u003espan\u003eMade from buttery soft opaque Microfiber for adaptable stretch, comfort, and nipple coverage \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoop’s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Rounded neckline with smoothing, unlined cups that seamlessly extend into the straps for clean lines and flattering shaping. \/span\u003espan\u003eMade from buttery soft opaque Microfiber for adaptable stretch, comfort, and nipple coverage \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoop’s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Rounded neckline with smoothing, unlined cups that seamlessly extend into the straps for clean lines and flattering shaping. \/span\u003espan\u003eMade from buttery soft opaque Microfiber for adaptable stretch, comfort, and nipple coverage \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoop’s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Rounded neckline with smoothing, unlined cups that seamlessly extend into the straps for clean lines and flattering shaping. \/span\u003espan\u003eMade from buttery soft opaque Microfiber for adaptable stretch, comfort, and nipple coverage \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>This bundle features the Scoop and Highwaist. The Scoop offers adaptable support in smooth, opaque Microfiber and the Highwaist is a high cut, high rise silhouette in soft, breathable Modal.br data-mce-fragment=Bundle includes the Scoop and a three-pack of the HighwaistThe Scoop is a smooth, sculpted silhouette for versatile support with second-skin softnessThe Highwaist is a high rise, high cut style with cheeky back end coverage</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Scoop is our most universally fit-forgiving silhouette, which a rounded, leotard back for added support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003eli\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>p\u003eMicro: 83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMicro care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA smooth, sculpted silhouette made from the softest fabric in our collection. The Scoopâ€™s curved neckline and seamless construction accentuate your natural form for second-skin support all-day, everyday. Choose your favorite color from our selection.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003ePack includes two Scoop bras\/span\u003espan\u003eRounded neckline and molded cups seamlessly extend into the straps for clean lines and flattering shaping\/span\u003espan\u003eMade from buttery soft, opaque Microfiber for adaptable stretch, comfort, and nipple coverage\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eDesigned with a rounded, leotard back for additional support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>p\u003e83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>p\u003eThis set features the Scoop and Bikini in Mulberry. The Scoop offers adaptable support in smooth, opaque Microfiber and the Bikini is a versatile, modern essential in soft, breathable Modal.br\u003e\/p\u003e\nul\u003e\nli\u003eSet includes the Scoop and Bikini in MulberryThe Scoop is a smooth, sculpted silhouette for versatile support with second-skin softnessThe Bikini is an mid rise style with a flattering back V shape and cheeky back end coverage\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Scoop is our most universally fit-forgiving silhouette, which a rounded, leotard back for added support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Bikini means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>p\u003eMicro: 83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMicro care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>p\u003eThis bundle features the Scoop and Bikini. The Scoop offers adaptable support in smooth, opaque Microfiber and the Bikini is a versatile, modern essential in soft, breathable Modal.br\u003e\/p\u003e\nul\u003e\nli\u003eBundle includes the Scoop (Sand) and a three-pack of the Bikini (Taupe, Salt, Sand)The Scoop is a smooth, sculpted silhouette for versatile support with second-skin softnessThe Bikini is an mid rise style with a flattering back V shape and cheeky back end coverage\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Scoop is our most universally fit-forgiving silhouette, which a rounded, leotard back for added support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Bikini means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>p\u003eMicro: 83.5% Polyamide\/16.5% Elastane\/p\u003ep\u003eMicro care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eWide set straps and a straight neckline create a flattering effect\/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eWide set straps and a straight neckline create a flattering effect\/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eSoft, sheer, and breathable Power Mesh delivers support without the weight \n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>p data-mce-fragment=\"1\"\u003espan data-mce-fragment=\"1\"\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\/span\u003e\/p\u003e\nul data-mce-fragment=\"1\"\u003e\nli data-mce-fragment=\"1\"\u003espan data-mce-fragment=\"1\"\u003eWide set straps and a straight neckline create a flattering effect\/span\u003e\/li\u003e\nli data-mce-fragment=\"1\"\u003espan data-mce-fragment=\"1\"\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003e\/li\u003e\nli data-mce-fragment=\"1\"\u003espan data-mce-fragment=\"1\"\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eWide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eWide set straps and a straight neckline create a flattering effect\/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>p\u003eThis set features the Satin Balconette and Satin High Cut in Crystal Shine. The Balconetteâ€™s iconic and stylish lines and the High Cutâ€™s figure-flattering shape are accentuated by smooth, stretchy, silky Satin.br\u003e\/p\u003e\nul\u003e\nli\u003eSet includes the Satin Balconette and Satin High Cut in Crystal ShineThe Satin Balconette frames, flatters, and shapes for stylish support with lightweight Mesh lining and opaque coverageThe Satin High Cut hits right at the waist and high at the hip with cheeky back end coverageOur Satin material flaunts lustrous shine, smooth feel and performance stretch\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eIf you are in between cup sizes in the Balconette, we recommend you go up a cup size\/li\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe tailored construction of the High Cut creates a streamlined finish that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eSoft, sheer, and breathable Power Mesh delivers support without the weight \n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. Choose your favorite color from our selection.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003ePack includes three Balconette bras\/span\u003e\/li\u003e li\u003espan\u003eWide set straps and a straight neckline create a flattering effect\/span\u003e\/li\u003e li\u003espan\u003eSoft, sheer, and breathable Power Mesh delivers support without the weight\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDesigned to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame, flatter, and shape. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide set straps and a straight neckline create a flattering effect \/span\u003espan\u003eSoft, sheer, unlined, and breathable Power Mesh delivers support without the weight \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping\/li\u003eli\u003eBonded wing and neckline details provide band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eWide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eWide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>This bundle features the Balconette, String Thong, and Fishnet Tights. Supportive, sexy, and stylish, these silhouettes offer a bold and timeless foundation.br data-mce-fragment=Bundle includes the Balconette, String Thong, and Fishnet TightsThe Balconette is a bold style statement that iconically frames, flatters, and shapes in Power MeshThe String Thong is a barely-there style with our most minimal side and back coverage in soft, breathable ModalThe Fishnet Tights feature an iconic open-knit pattern and are made from ECONYL® regenerated nylon</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe elevated construction of the String Thong means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003eli\u003eThe Fishnet Tight’s high rise and soft, elasticated waistband ensure stay-in-place comfort\/li\u003eli\u003eThe fit of the tights is based on a shared sizing chart with our underwear; size up or down depending on height\/li\u003eli\u003eMolly is wearing a Medium in the Fishnet Tights\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>p\u003eTights: 82%  ECONYL® regenerated nylon 12% Elastane\/p\u003ep\u003eTights Care: Machine or hand wash cold. Lay flat to dry.\/p\u003e\np\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>This set features the Satin Balconette and Satin String Thong in Garnet Shine. The Balconette’s iconic and framing lines are a stylish match for the String Thong’s barely there finish and modern feel in smooth, stretchy, silky Satin.br data-mce-fragment=Set includes the Satin Balconette and Satin String Thong in Garnet ShineThe Satin Balconette frames, flatters, and shapes for stylish support with lightweight Mesh lining and opaque coverageThe Satin String Thong offers our most minimal side and back end coverage for a seamless appearance under clothingOur Satin material flaunts lustrous shine, smooth feel and performance stretch</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eIf you are in between cup sizes in the Balconette, we recommend you go up a cup size in Satin\/li\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe elevated construction of the String Thong means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>This set features the Satin Balconette and Satin High Cut in Black Shine. The Balconette’s iconic and stylish lines and the High Cut’s figure-flattering shape are accentuated by smooth, stretchy, silky Satin.br data-mce-fragment=Set includes the Satin Balconette and Satin High Cut in Black ShineThe Satin Balconette frames, flatters, and shapes for stylish support with lightweight Mesh lining and opaque coverageThe Satin High Cut hits right at the waist and high at the hip with cheeky back end coverageOur Satin material flaunts lustrous shine, smooth feel and performance stretch</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eIf you are in between cup sizes in the Balconette, we recommend you go up a cup size\/li\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe tailored construction of the High Cut creates a streamlined finish that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>108.0</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>This bundle features the Balconette and Thong. The Balconette is a bold style statement in sheer Power Mesh and the Thong is a minimal coverage essential in soft, breathable Modal.br data-mce-fragment=Bundle includes the Balconette and a three-pack of the ThongThe Balconette is a bold style statement that iconically frames, flatters, and shapesThe Thong is a mid rise style that offers a seamless appearance under clothing</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Thong means a no-dent, high-stretch waistband that’s distraction-free\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003eli\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>p\u003eThis bundle features the Balconette and Highwaist. Two vintage-inspired silhouettes defined by stylish lines and a flattering fit in sheer, sexy Power Mesh and soft, breathable Modal.br\u003e\/p\u003e\nul\u003e\nli\u003eBundle includes the Balconette (Fuchsia) and a three-pack of the Highwaist (Carmine, Fuchsia, Sand)The Balconette is a bold style statement that iconically frames, flatters, and shapesThe Highwaist is a high rise, high cut style with cheeky back end coverage\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003eli\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eWide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eWide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide set straps and a straight neckline create a flattering effect \n\/span\u003e\/li\u003e li\u003espan\u003eMade from smooth, lustrous Satin for performance stretch and supreme wearability\n\/span\u003e\/li\u003e li\u003espan\u003eLightly lined with Mesh for all-day breathability and opaque nipple coverage\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCups are sewn, not molded, with a darted seam for natural shaping \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>This bundle features the Balconette and Highwaist. Two vintage-inspired silhouettes defined by stylish lines and a flattering fit in sheer, sexy Power Mesh and soft, breathable Modal and Lurex. Choose your favorite colors from our collection.br data-mce-fragment=Bundle includes the Balconette and a three-pack of the HighwaistThe Balconette is a bold style statement that iconically frames, flatters, and shapesThe Highwaist is a high rise, high cut style with cheeky back end coverage</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe elevated construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003ep\u003eModal: 88% Modal\/12% Elastane\/p\u003ep\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003ep\u003eLurex: 78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eLurex care: Machine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Wide set straps and a straight neckline iconically frame, flatter, and shape to make the Balconette a bold style statement. Satin accentuates its clean lines and composed fit. Choose your favorite color from our selection.br data-mce-fragment=Pack includes two Balconette brasIf you are in between cup sizes, we recommend you go up a cup sizeWide set straps and a straight neckline create a flattering effectMade from smooth, lustrous Satin for performance stretch and supreme wearabilityLightly lined with Mesh for all-day breathability and opaque nipple coverageLightweight underwire is flexible and distraction-free: no poking, no digging</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eIf you are in between cup sizes, we recommend you go up a cup size.\/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>p84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Designed to be seen, the Balconette is a bold style statement. Wide set straps and a straight neckline iconically frame and flatter in lustrous, stretchy Satin and sheer, sexy Power Mesh. Choose your favorite color from our selection.br data-mce-fragment=Pack includes two Balconette brasIf you are in between cup sizes, we recommend you go up a cup size in SatinWide set straps and a straight neckline create a flattering effectSoft, sheer, and breathable Power Mesh delivers support without the weightSmooth, stretchy Satin is lined with Power Mesh for opaque coverage and breathabilityLightweight underwire is flexible and distraction-free: no poking, no digging</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003ep\u003eSatin: 84% Polyamide 16% Lycra\/p\u003ep\u003eSatin care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>p\u003eThis bundle features the Balconette and Highwaist. Two vintage-inspired silhouettes defined by stylish lines and a flattering fit in sheer, sexy Power Mesh and soft, breathable Modal.br\u003e\/p\u003e\nul\u003e\nli\u003eBundle includes the Balconette (Taupe) and a three-pack of the Highwaist (Espresso, Sand, Taupe)The Balconette is a bold style statement that iconically frames, flatters, and shapesThe Highwaist is a high rise, high cut style with cheeky back end coverage\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>ul\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Demi is our modern take on the everyday t-shirt bra. An elegant neckline and soft, supportive cups molded from 3D spacer fabric provide non-creasing, smoothing coverage without any padding or foam.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nCups are molded in 3D Spacer fabric for maximum comfort, nipple coverage, and beautiful shaping\/span\u003espan\u003eSpacer fabric is lightly lined, lightweight, breathable with seamless coverage that disappears under clothing\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eA universally supportive silhouette that provides a subtle lift for all CUUP sizes\/li\u003eli\u003eWings are crafted from Power Mesh for band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry flat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Demi is our modern take on the everyday t-shirt bra. An elegant neckline and soft, supportive cups molded from 3D spacer fabric provide non-creasing, smoothing coverage without any padding or foam. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eCups are molded in 3D Spacer fabric for maximum comfort, nipple coverage, and beautiful shaping \/span\u003espan\u003eSpacer fabric is lightly lined, lightweight, breathable with seamless coverage that disappears under clothing \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eA universally supportive silhouette that provides a subtle lift for all CUUP sizes\/li\u003eli\u003eWings are crafted from Power Mesh for band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry flat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Demi is our modern take on the everyday t-shirt bra. An elegant neckline and soft, supportive cups molded from 3D spacer fabric provide non-creasing, smoothing coverage without any padding or foam.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nCups are molded in 3D Spacer fabric for maximum comfort, nipple coverage, and beautiful shaping\n\/span\u003e\/li\u003e li\u003espan\u003eSpacer fabric is lightweight, breathable with seamless coverage that disappears under clothing\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eA universally supportive silhouette that provides a subtle lift for all CUUP sizes\/li\u003eli\u003eWings are crafted from Power Mesh for band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry flat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Demi is our modern take on the everyday t-shirt bra. It features an elegant neckline and soft, supportive cups molded from 3D Spacer fabric to provide non-creasing, smoothing coverage without any padding or foam. Choose your favorite color from our selection.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003ePack includes two Demi bras\/span\u003espan\u003eCups are molded in 3D Spacer fabric for maximum comfort, nipple coverage, and beautiful shaping\/span\u003espan\u003eSpacer fabric is lightweight, breathable with seamless coverage that disappears under clothing\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eA universally supportive silhouette that provides a subtle lift for all CUUP sizes\/li\u003eli\u003eWings are crafted from Power Mesh for band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry flat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Demi is our modern take on the everyday t-shirt bra. It features an elegant neckline and soft, supportive cups molded from 3D Spacer fabric to provide non-creasing, smoothing coverage without any padding or foam. Choose your favorite color from our selection.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003ePack includes three Demi bras\/span\u003e\/li\u003e li\u003espan\u003eCups are molded in 3D Spacer fabric for maximum comfort, nipple coverage, and beautiful shaping\/span\u003e\/li\u003e li\u003espan\u003eSpacer fabric is lightweight, breathable with seamless coverage that disappears under clothing\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eA universally supportive silhouette that provides a subtle lift for all CUUP sizes\/li\u003eli\u003eWings are crafted from Power Mesh for band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry flat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Demi is our modern take on the everyday t-shirt bra. An elegant neckline and soft, supportive cups molded from 3D spacer fabric provide non-creasing, smoothing coverage without any padding or foam. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Cups are molded in 3D Spacer fabric for maximum comfort, nipple coverage, and beautiful shaping \/span\u003espan\u003eSpacer fabric is lightly lined, lightweight, breathable with seamless coverage that disappears under clothing \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eA universally supportive silhouette that provides a subtle lift for all CUUP sizes\/li\u003eli\u003eWings are crafted from Power Mesh for band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry flat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Demi is our modern take on the everyday t-shirt bra. An elegant neckline and soft, supportive cups molded from 3D spacer fabric provide non-creasing, smoothing coverage without any padding or foam. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Cups are molded in 3D Spacer fabric for maximum comfort, nipple coverage, and beautiful shaping \/span\u003espan\u003eSpacer fabric is lightly lined, lightweight, breathable with seamless coverage that disappears under clothing \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eA universally supportive silhouette that provides a subtle lift for all CUUP sizes\/li\u003eli\u003eWings are crafted from Power Mesh for band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry flat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Demi is our modern take on the everyday t-shirt bra. An elegant neckline and soft, supportive cups molded from 3D spacer fabric provide non-creasing, smoothing coverage without any padding or foam. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Cups are molded in 3D Spacer fabric for maximum comfort, nipple coverage, and beautiful shaping \/span\u003espan\u003eSpacer fabric is lightly lined, lightweight, breathable with seamless coverage that disappears under clothing \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eA universally supportive silhouette that provides a subtle lift for all CUUP sizes\/li\u003eli\u003eWings are crafted from Power Mesh for band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry flat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Demi is our modern take on the everyday t-shirt bra. An elegant neckline and soft, supportive cups molded from 3D spacer fabric provide non-creasing, smoothing coverage without any padding or foam. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Cups are molded in 3D Spacer fabric for maximum comfort, nipple coverage, and beautiful shaping \/span\u003espan\u003eSpacer fabric is lightly lined, lightweight, breathable with seamless coverage that disappears under clothing \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eA universally supportive silhouette that provides a subtle lift for all CUUP sizes\/li\u003eli\u003eWings are crafted from Power Mesh for band stability and support\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry flat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>p\u003eThis bundle features the Demi and Bikini. The Demi creates smoothing, concealing coverage in 3D Spacer fabric and the Bikini is a versatile, modern essential in soft, breathable Modal.br\u003e\/p\u003e\nul\u003e\nli\u003eBundle includes the Demi and a three-pack of the BikiniThe Demi is a modern take on timeless, concealing coverage with supportive shaping and smooth linesThe Bikini is an mid rise style with a flattering back V shape and cheeky back end coverage\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Demi is a universally supportive style that provides a subtle lift for all CUUP sizes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Bikini means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>p\u003eSpacer: 79% Nylon\/21% Spandex\/p\u003ep\u003eSpacer care: Machine wash delicate or hand wash cold. Do not bleach. Dry flat.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>p\u003eThis bundle features the Demi and Highwaist. The Demi creates smoothing, concealing coverage in 3D Spacer fabric and the Highwaist is a sensual take on a classic style in soft, breathable Modal.br\u003e\/p\u003e\nul\u003e\nli\u003eBundle includes the Demi and a three-pack of the HighwaistThe Demi is a modern take on timeless, concealing coverage with supportive shaping and smooth linesThe Highwaist is a high rise, high cut style with cheeky back end coverage\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Demi is a universally supportive style that provides a subtle lift for all CUUP sizes \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>p\u003eSpacer: 79% Nylon\/21% Spandex\/p\u003ep\u003eSpacer care: Machine wash delicate or hand wash cold. Do not bleach. Dry flat.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eOur Best Sellers three-pack includes the Plunge, Balconette, and Scoop bras. Made from our signature, sheer Power Mesh and incredibly soft Micro, they offer a range of minimal, medium, and opaque coverage. Choose your favorite color from our selection.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nPack includes three bras (Plunge, Balconette, Scoop)\/span\u003e\/li\u003e li\u003espan\u003eThe Plunge is a pared-down, deep V silhouette made for sheer, sexy support \/span\u003e\/li\u003e li\u003espan\u003eThe Balconette is a bold style statement that iconically frames, flatters, and shapes\/span\u003e\/li\u003e li\u003espan\u003eThe Scoop is a smooth, sculpted silhouette for versatile support with second-skin softness\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eThe Scoop is our most universally fit-forgiving silhouette, which a rounded, leotard back for added support and smoothing along the side of the body\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003e\np\u003eMicro: 83.5% Polyamide\/16.5% Elastane\/p\u003e\np\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Essential Bra four-pack includes one of each of our silhouettes. Featuring innovative and lightweight materials, our range of silhouettes offer natural shaping, stylish support, and minimal to full coverage. Choose your favorite color from our collection.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003ePack includes four bras (Plunge, Balconette, Scoop, Demi)\/span\u003espan\u003eThe Plunge is a pared-down, deep V silhouette made for sheer, sexy support\/span\u003e\/li\u003e li\u003espan\u003eThe Balconette is a bold style statement that iconically frames, flatters, and shapes\/span\u003e\/li\u003e li\u003espan\u003eThe Scoop is a smooth, sculpted silhouette for versatile support with second-skin softness\/span\u003e\/li\u003e li\u003espan\u003eThe Demi is a modern take on timeless, concealing coverage with supportive shaping and smooth lines\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eThe Scoop is our most universally fit-forgiving silhouette, which a rounded, leotard back for added support and smoothing along the side of the body\/li\u003eli\u003eThe Demi is a universally supportive style that provides a subtle lift for all CUUP sizes \/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>p\u003e Mesh, Spacer: 79% Nylon\/21% Spandex\/p\u003e\np\u003e Micro: 83.5% Polyamide\/16.5% Elastane\/p\u003e\np\u003e Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Mesh Bras four-pack includes two Plunge and two Balconette bras. Defined by our sheer, lightweight Power Mesh, these two silhouettes offer natural shaping, stylish support, and minimal to medium coverage. Choose your favorite color from our collection.\/span\u003e\/p\u003ep\u003e\n\/p\u003eul\u003e\nli\u003espan\u003ePack includes four bras (2x Plunge, 2x Balconette)\/span\u003espan\u003eThe Plunge is a pared-down, deep V silhouette made for sheer, sexy support\/span\u003espan\u003eThe Balconette is a bold style statement that iconically frames, flatters, and shapes\/span\u003espan\u003eSoft, sheer, and breathable Power Mesh delivers support without the weight\/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>p\u003e79% Nylon\/21% Spandex\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>p\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.br\u003e\/p\u003e\nul\u003e\nli\u003eIncludes three pairs of the Thong (Mulberry, Taupe, Black)Minimal back end coverage, offers a seamless appearance under clothingMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan style=\"font-weight: 400;\"\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one youâ€™ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Highwaist in Modal (Espresso, Sand, Taupe)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers cheeky back end coverage\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one you’ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the String Thong in Black\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one you’ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one you’ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing. In Satin, it has just the right amount of stretch and sheen.br\u003e\/p\u003e\nul\u003e\nli\u003eMost minimal side and back end coverage, offers a seamless appearance under clothingSatin blends softness and stretch, maintaining a smooth sensation against the skin\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size\/li\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one you’ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers minimal back end coverage for less lines under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>A barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.br data-mce-fragment=Includes three pairs of the String Thong (Carmine, Fuchsia, Sand)Most minimal side and back end coverage, offers a seamless appearance under clothingMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>p\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.br\u003e\/p\u003e\nul\u003e\nli\u003eIncludes three pairs of the Thong (Carmine, Fuchsia, Sand)Minimal back end coverage, offers a seamless appearance under clothingMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>p\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.br\u003e\/p\u003e\nul\u003e\nli\u003eIncludes five pairs of the Thong (Carmine, Fuchsia, Sand, Black, Taupe)Minimal back end coverage, offers a seamless appearance under clothingMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>p data-mce-fragment=\"1\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette in sparkling soft Lurex. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul data-mce-fragment=\"1\"\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eMade from Lurex for a sparkling finish that doesn’t compromise comfort or breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eSparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin\/span\u003e</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>p data-mce-fragment=\"1\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette in sparkling soft Lurex. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul data-mce-fragment=\"1\"\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eMade from Lurex for a sparkling finish that doesn’t compromise comfort or breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eSparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin\/span\u003e</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\n  \n\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c  \"\u003e\n  p\u003espan style=\"font-weight: 400;\"\u003eThis soft modal thong is the most comfortably minimal panty you'll ever wear. Cut with the same flattering back V-shape as our Bikini Brief, it lies flat when worn both high on the waist or low across the hips. And it's totally seamless under clothing. \/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eUltra-soft modal feels light against the skin\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo gusset wicks moisture and keeps you comfortable \/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eNo-dent, high stretch modal waistband is fit-forgiving and clean\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMaterials: 88% Modal\/12% Elastane\/span\u003e\/li\u003e\n\/ul\u003e\n\n\/div\u003e\n\n\n  \n\/div\u003e\n"</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Thong (Clay, Espresso, Black)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eIncludes five pairs of the Thong (Clay, Sand, Taupe, Espresso, Black)\/span\u003espan\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>p data-mce-fragment=\"1\"\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing. In Satin, it has just the right amount of stretch and sheen.br data-mce-fragment=\"1\"\u003e\/p\u003e\nul data-mce-fragment=\"1\"\u003e\nli data-mce-fragment=\"1\"\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/li\u003e\nli data-mce-fragment=\"1\"\u003eSatin blends softness and stretch, maintaining a smooth sensation against the skin</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size\/li\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing. In Satin, it has just the right amount of stretch and sheen.br\u003e\/p\u003e\nul\u003e\nli\u003eMost minimal side and back end coverage, offers a seamless appearance under clothingSatin blends softness and stretch, maintaining a smooth sensation against the skin\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size\/li\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>A barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing. In Satin, it has just the right amount of stretch and sheen.br data-mce-fragment=Pack includes three of the Satin String Thong (Crystal Shine, Garnet Shine, Black Shine)Most minimal side and back end coverage, offers a seamless appearance under clothingSatin blends softness and stretch, maintaining a smooth sensation against the skin</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size\/li\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>p\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.br\u003e\/p\u003e\nul\u003e\nli\u003eIncludes three pairs of the String Thong (Mulberry, Amethyst, Black)Most minimal side and back end coverage, offers a seamless appearance under clothingMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eIncludes three pairs of the String Thong (Amethyst, Taupe, Black)\/span\u003espan\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the String Thong (Sand, Black, Taupe)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan style=\"font-weight: 400;\"\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan style=\"font-weight: 400;\"\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan style=\"font-weight: 400;\"\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the String Thong (Sand, Taupe, Salt)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the String Thong in Taupe\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003eIncludes five pairs of the String Thong (Taupe (2), Black (2), Leopard)\/span\u003e\/li\u003e li\u003espan\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes five pairs of the String Thong (Taupe (2), Black (2), Sand)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan style=\"font-weight: 400;\"\u003eA barely there style with flattering, modern lines. The String Thong is cut for minimal side coverage and disappears under clothing.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMost minimal side and back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high or low across the hips\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort in sparkling soft Lurex. \/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal back end coverage for less lines under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Lurex for a sparkling finish that doesn’t compromise comfort or breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eSparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort in sparkling soft Lurex.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal back end coverage for less lines under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Lurex for a sparkling finish that doesn’t compromise comfort or breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eSparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort in sparkling soft Lurex.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal back end coverage for less lines under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Lurex for a sparkling finish that doesn’t compromise comfort or breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eSparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Flaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort in sparkling soft Lurex.br data-mce-fragment=Pack includes five pairs of the Lurex Highwaist Thong (2x Black Sparkle, 2x Taupe Sparkle, Teal Sparkle)Offers minimal back end coverage for less lines under clothingMade from Lurex for a sparkling finish that doesnâ€™t compromise comfort or breathabilitySparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button \/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers minimal back end coverage for less lines under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers minimal back end coverage for less lines under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers minimal back end coverage for less lines under clothing\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Flaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.br data-mce-fragment=Includes three pairs of the Highwaist Thong (Plum, Mulberry, Amethyst)Offers minimal back end coverage for less lines under clothingMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan style=\"font-weight: 400;\"\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal back end coverage for less lines under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>p\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.br\u003e\/p\u003e\nul\u003e\nli\u003eIncludes three pairs of the Highwaist Thong (Mulberry, Amethyst, Black)Offers minimal back end coverage for less lines under clothingMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Highwaist Thong (Amethyst, Taupe, Black) \/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal back end coverage for less lines under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Highwaist Thong in Black\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal back end coverage for less lines under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Highwaist Thong in Taupe\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal back end coverage for less lines under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Highwaist Thong (Black, Taupe, Leopard) \/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal back end coverage for less lines under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan style=\"font-weight: 400;\"\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal back end coverage for less lines under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan style=\"font-weight: 400;\"\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal back end coverage for less lines under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>div class=\"shogun-root\" data-shogun-id=\"5fecfd2262305b006676c606\" data-shogun-site-id=\"7934a05f-9a9b-456c-8a7b-8f5fd0407743\" data-shogun-page-id=\"5fecfd2262305b006676c606\" data-shogun-page-version-id=\"5fecfd2262305b006676c605\" data-shogun-platform-type=\"shopify\" data-shogun-variant-id=\"5fecfd2262305b006676c607\" data-region=\"main\"\u003e\ndiv id=\"s-2e0c7af8-626e-4a64-9853-6c7e523408b2\" class=\"shg-c\"\u003e\np\u003espan style=\"font-weight: 400;\"\u003eFlaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal back end coverage for less lines under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\n\/div\u003e\n\/div\u003e"</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>This curated set features each of our most minimal silhouettes with versatile rise and side coverage options.br data-mce-fragment=Includes the String Thong (Sand), Thong (Sand), and Highwaist Thong (Sand)Each style offers minimal back end coverage for a seamless appearance under clothingUltra-soft Modal feels light against skinAntimicrobial bamboo lining wicks moisture and keeps you comfortable</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe String Thong is a barely there, mid rise style with flattering, modern lines\/li\u003eli\u003eThe Thong is a mid rise silhouette, cut with the same back V shape as our Bikini\/li\u003eli\u003eThe Highwaist Thong is a high rise, high cut style that flatters the hips and elongates the legs\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>A minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.br data-mce-fragment=Includes three pairs of the Thong (Black, Sand, Salt)Minimal back end coverage, offers a seamless appearance under clothingMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>This curated pack features the best selling Thong, Bikini, and Highwaist in Modal, for ultimate coverage and styling versatility.br data-mce-fragment=Includes five pairs: the Thong (Sand, Salt), the Bikini (Sand, Black) the Highwaist (Black)The Thong offers minimal coverage for a seamless appearance under clothingThe Bikini is a mid rise style with cheeky back end coverageThe Highwaist is a high rise, high cut style with cheeky back end coverageMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Thong and Bikini feature the same flattering back V shape\/li\u003eli\u003eThe Highwaist flatters the hips and elongates the legs\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>This curated pack features the best selling Thong, Bikini, and Highwaist in Modal, for ultimate coverage and styling versatility.\nul\u003e\nli\u003eIncludes five pairs: the Thong (Black, Leopard), the Bikini (Black, Leopard) the Highwaist (Black)The Thong offers minimal coverage for a seamless appearance under clothingThe Bikini is a mid rise style with cheeky back end coverageThe Highwaist is a high rise, high cut style with cheeky back end coverageMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Thong and Bikini feature the same flattering back V shape\/li\u003eli\u003eThe Highwaist flatters the hips and elongates the legs\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eIncludes five pairs of the Thong in Modal (Black, Sand, Taupe)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eThis curated set features each of our most minimal silhouettes with versatile rise and side coverage options.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs: the String Thong, Thong, and Highwaist Thong in Black\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eEach style offers minimal back end coverage for a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eUltra-soft Modal feels light against skin\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe String Thong is a barely there, mid rise style with flattering, modern lines\/li\u003eli\u003eThe Thong is a mid rise silhouette, cut with the same back V shape as our Bikini\/li\u003eli\u003eThe Highwaist Thong is a high rise, high cut style that flatters the hips and elongates the legs\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>A minimal coverage and mid rise silhouette, The Thong is cut with the same flattering back V shape as our Bikini. In Lurex and Modal, itâ€™s supremely soft with plenty of comfort and breathability.br data-mce-fragment=Pack includes the Lurex Thong (Black Sparkle) and two pairs of the Modal Thong (2x Black Sparkle)Minimal back end coverage, offers a seamless appearance under clothingLurex maintains a smooth and soft sensation for a sparkling finish that doesnâ€™t compromise on comfort or breathabilityModal is made for superior softness, breathability, and all-day comfort</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>p\u003eLurex: 78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eLurex care: Machine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003ep\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Flaunting the rise and cut of the Highwaist with the minimal coverage of the Thong, the Highwaist Thong is the ultimate in sensual style and elevated comfort in Lurex and Modal.br data-mce-fragment=Pack includes three pairs of the Lurex Highwaist Thong (Black Sparkle, Teal Sparkle, Taupe Sparkle) and two pairs of the Modal Highwaist Thong (Black, Taupe)Offers minimal back end coverage for less lines under clothingLurex maintains a smooth and soft sensation for a sparkling finish that doesnâ€™t compromise on comfort or breathabilityModal is made for superior softness, breathability, and all-day comfort</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button \/li\u003eli\u003eA high rise, high cut silhouette that flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>p\u003eLurex: 78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eLurex care: Machine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003ep\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis curated set features each of our most minimal silhouettes with versatile rise and side coverage options.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003eIncludes three pairs: the String Thong, Thong, and Highwaist Thong in Taupe\/span\u003e\/li\u003e li\u003espan\u003eEach style offers minimal back end coverage for a seamless appearance under clothing\/span\u003e\/li\u003e li\u003espan\u003eUltra-soft Modal feels light against skin\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe String Thong is a barely there, mid rise style with flattering, modern lines\/li\u003eli\u003eThe Thong is a mid rise silhouette, cut with the same back V shape as our Bikini\/li\u003eli\u003eThe Highwaist Thong is a high rise, high cut style that flatters the hips and elongates the legs\/li\u003eli\u003eElevated construction means a comfortable, stay-in-place waistband \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers cheeky back end coverage\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers cheeky back end coverage\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>p\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.br\u003e\/p\u003e\nul\u003e\nli\u003eIncludes three pairs of the Highwaist (Carmine, Fuchsia, Sand)Offers cheeky back end coverageMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>p\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.br\u003e\/p\u003e\nul\u003e\nli\u003eIncludes five pairs of the Highwaist (Carmine, Fuchsia, Sand, Black, Taupe)Offers cheeky back end coverageMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs. In Lurex, it’s sparkling and soft with plenty of comfort.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers cheeky back end coverage\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Lurex for a sparkling finish that doesn’t compromise comfort or breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eSparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers cheeky back end coverage\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>This curated pack features the best selling Thong, Bikini, and Highwaist in Modal, for ultimate coverage and styling versatility.br data-mce-fragment=Includes five pairs: the Thong (Mulberry, Black), the Bikini (Mulberry, Black) the Highwaist (Mulberry)The Thong offers minimal coverage for a seamless appearance under clothingThe Bikini is a mid rise style with cheeky back end coverageThe Highwaist is a high rise, high cut style with cheeky back end coverageMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Thong is a mid rise silhouette, cut with the same back V shape as our Bikini\/li\u003eli\u003eThe Highwaist flatters the hips and elongates the legs\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Highwaist (Amethyst, Salt, Taupe)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers cheeky back end coverage\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>p\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.br\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eIncludes five pairs of the Highwaist (Clay, Sand, Taupe, Espresso, Black)\/span\u003espan\u003eOffers cheeky back end coverage\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eThe Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Highwaist (Clay, Taupe, Black)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers cheeky back end coverage\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button\/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>The Highwaist is a sensual take on a classic style. Its high rise, high cut silhouette flatters the hips and elongates the legs. In Lurex and Modal, itâ€™s sparkling and soft with plenty of comfort.br data-mce-fragment=Pack includes two pairs of the Modal Highwaist (2x Taupe) and the Lurex Highwaist (Taupe Sparkle)Offers cheeky back end coverageLurex maintains a smooth and soft sensation for a sparkling finish that doesnâ€™t compromise on comfort or breathabilityModal is made for superior softness, breathability, and all-day comfort</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eWaistband hits right at or below the belly button \/li\u003eli\u003eA high rise, high cut silhouette flatters the hips and elongates the legs \/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>p\u003eLurex: 78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eLurex care: Machine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003ep\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>p data-mce-fragment=\"1\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the sparkling softness and elevated comfort of Lurex.\/span\u003e\/p\u003e\nul data-mce-fragment=\"1\"\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eOffers full back end coverage \/span\u003e\/li\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eMade from Lurex for a sparkling finish that doesn’t compromise comfort or breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eSparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin\/span\u003e</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>A full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the sparkling softness and elevated comfort of Lurex.br data-mce-fragment=Pack includes three pairs of the Lurex Brief (Teal Sparkle, Taupe Sparkle, Black Sparkle)Offers full back end coverageMade from Lurex for a sparkling finish that doesnâ€™t compromise comfort or breathabilitySparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the sparkling softness and elevated comfort of Lurex.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers full back end coverage \/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Lurex for a sparkling finish that doesn’t compromise comfort or breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eSparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the sparkling softness and elevated comfort of Lurex.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers full back end coverage \/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Lurex for a sparkling finish that doesn’t compromise comfort or breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eSparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal. \/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Brief (Amethyst, Salt, Taupe)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers full back end coverage \/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal. \/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Brief (Ocean, Celadon, Opal)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers full back end coverage \/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal. \/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers full back end coverage \/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal. \/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes five pairs of the Brief (Black (2x), Taupe (2), Salt)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers full back end coverage \/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal. \/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Brief (Sand, Taupe, Salt)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers full back end coverage \/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers full back end coverage \/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>A full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal.br data-mce-fragment=Includes three pairs of the Brief (3x Black)Offers full back end coverageMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>A full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal and Lurex.br data-mce-fragment=Includes three pairs of the Brief (2x Taupe, Taupe Sparkle)Offers full back end coverageLurex maintains a smooth and soft sensation for a sparkling finish that doesnâ€™t compromise on comfort or breathabilityModal is made for superior softness, breathability, and all-day comfort</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eliLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\n\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>p\u003eLurex: 78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eLurex care: Machine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003ep\u003eModal: 88% Modal\/12% Elastane\/p\u003ep\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>A full-coverage silhouette that comfortably sits along the waist, the Brief combines classic lines and everyday wearability with the supreme softness of Modal and Lurex.br data-mce-fragment=Includes three pairs of the Brief (2x Black, Black Sparkle)Offers full back end coverageLurex maintains a smooth and soft sensation for a sparkling finish that doesnâ€™t compromise on comfort or breathabilityModal is made for superior softness, breathability, and all-day comfort</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise style with a sculpted hip and bikini line\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>p\u003eLurex: 78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eLurex care: Machine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003ep\u003eModal: 88% Modal\/12% Elastane\/p\u003ep\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one you’ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers minimal, cheeky back end coverage\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one you’ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers minimal, cheeky back end coverage\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>p\u003eThis soft Modal bikini is the one you'll want to wear every single day. Its flattering back V-shape keeps it lying flat both high on the waist or low across the hips.br\u003e\/p\u003e\nul\u003e\nli\u003eIncludes three pairs of the Bikini (Carmine, Fuchsia, Sand)Offers minimal, cheeky back end coverageMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>p\u003eThis soft Modal bikini is the one you'll want to wear every single day. Its flattering back V-shape keeps it lying flat both high on the waist or low across the hips.br\u003e\/p\u003e\nul\u003e\nli\u003eIncludes five pairs of the Bikini (Carmine, Fuchsia, Sand, Black, Taupe)Offers minimal, cheeky back end coverageMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>p data-mce-fragment=\"1\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eThe Lurex Bikini is a soft and sparkling elevated version of an essential silhouette. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\/span\u003e\/p\u003e\nul data-mce-fragment=\"1\"\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eOffers minimal, cheeky back end coverage\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eMade from Lurex for a sparkling finish that doesn’t compromise comfort or breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\" data-mce-fragment=\"1\" data-mce-style=\"font-weight: 400;\"\u003eSparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin\/span\u003e</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eThe Lurex Bikini is a soft and sparkling elevated version of an essential silhouette. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal, cheeky back end coverage\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Lurex for a sparkling finish that doesn’t compromise comfort or breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eSparkling Lurex yarn floats on the face of the fabric for a smooth and soft sensation against skin\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eElevated construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>p\u003e78% Polyamide \/ 13% Lurex \/ 9% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one you’ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eOffers minimal, cheeky back end coverage\/span\u003espan\u003eMade from Modal for superior softness and breathability\/span\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one you’ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>p\u003eThis soft Modal Bikini is the one you'll want to wear every single day. Its flattering back V-shape keeps it lying flat both high on the waist or low across the hips.br\u003e\/p\u003e\nul\u003e\nli\u003eIncludes three pairs of the Bikini (Mulberry, Taupe, Black)Offers minimal, cheeky back end coverageMade from Modal for superior softness and breathabilityAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eThis soft Modal bikini is the one you'll want to wear every single day. Its flattering back V-shape keeps it lying flat both high on the waist or low across the hips.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Bikini (Clay, Espresso, Black)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal, cheeky back end coverage\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one you’ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one you’ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one you’ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eThis soft Modal bikini is the one you'll want to wear every single day. Its flattering back V-shape keeps it lying flat both high on the waist or low across the hips.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes seven pairs of the Bikini in Black\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal, cheeky back end coverage\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one youâ€™ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one youâ€™ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eThis soft Modal bikini is the one you'll want to wear every single day. Its flattering back V-shape keeps it lying flat both high on the waist or low across the hips.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes seven pairs of the Bikini (Taupe (3), Black (4))\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal, cheeky back end coverage\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one youâ€™ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one youâ€™ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one youâ€™ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eThis soft Modal bikini is the one you'll want to wear every single day. Its flattering back V-shape keeps it lying flat both high on the waist or low across the hips.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Bikini in Modal (Salt, Sand, Taupe)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eOffers minimal backend coverage\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eNo-dent, high stretch modal waistband is fit-forgiving and clean\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eUltra-soft modal feels light against the skin\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one youâ€™ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThis soft Modal brief is one youâ€™ll want to wear every single day. Its flattering back V shape keeps it lying flat when worn high on the waist, or low across the hips.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eMade from Modal for superior softness and breathability\n\/span\u003e\/li\u003e li\u003espan\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Satin Bikini is an elevated version of this essential silhouette. It maintains the same comfort and flattering back V shape, while flaunting the sheen, softness, and stretch of Satin.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eSatin blends softness and stretch, maintaining a smooth sensation against the skin\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size \/li\u003eli\u003eTailored construction and a low to mid rise create a distraction-free wear experience\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Satin Bikini is an elevated version of this essential silhouette. It maintains the same comfort and flattering back V shape, while flaunting the sheen, softness, and stretch of Satin.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eSatin blends softness and stretch, maintaining a smooth sensation against the skin\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size \/li\u003eli\u003eTailored construction and a low to mid rise create a distraction-free wear experience\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Satin Bikini is an elevated version of this essential silhouette. It maintains the same comfort and flattering back V shape, while flaunting the sheen, softness, and stretch of Satin.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers minimal, cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eSatin blends softness and stretch, maintaining a smooth sensation against the skin\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size \/li\u003eli\u003eTailored construction and a low to mid rise create a distraction-free wear experience\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA figure-flattering style with an elevated feel. The High Cut in Satin provides sheen with silky sensuality, comfort stretch, and cheeky coverage. \n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eSatin gently hugs your natural form while flaunting softness, stretch, and ease of wear\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size\/li\u003eli\u003eHits right at the waist, or below the belly button, and high at the hip\/li\u003eli\u003eTailored construction creates a streamlined finish that’s distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA figure-flattering style with an elevated feel. The High Cut in Satin provides sheen with silky sensuality, comfort stretch, and cheeky coverage. \n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eSatin gently hugs your natural form while flaunting softness, stretch, and ease of wear\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size\/li\u003eli\u003eHits right at the waist, or below the belly button, and high at the hip\/li\u003eli\u003eTailored construction creates a streamlined finish that’s distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA figure-flattering style with an elevated feel. The High Cut in Satin provides sheen with silky sensuality, comfort stretch, and cheeky coverage. \n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eSatin gently hugs your natural form while flaunting softness, stretch, and ease of wear\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size\/li\u003eli\u003eHits right at the waist, or below the belly button, and high at the hip\/li\u003eli\u003eTailored construction creates a streamlined finish that’s distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA figure-flattering style with an elevated feel. The High Cut in Satin provides sheen with silky sensuality, comfort stretch, and cheeky coverage. \n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers cheeky back end coverage\n\/span\u003e\/li\u003e li\u003espan\u003eSatin gently hugs your natural form while flaunting softness, stretch, and ease of wear\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size\/li\u003eli\u003eHits right at the waist, or below the belly button, and high at the hip\/li\u003eli\u003eTailored construction creates a streamlined finish that’s distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eIncludes three pairs of the Thong in Modal (Blush, Sand, Taupe)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe most comfortably minimal underwear you’ll ever wear. The Thong is cut with the same flattering back V shape as our Bikini and is totally seamless under clothing. In Satin, it has just the right amount of stretch and sheen.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers a seamless appearance under clothing\n\/span\u003e\/li\u003e li\u003espan\u003eSatin blends softness and stretch, maintaining a smooth sensation against the skin\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size \/li\u003eli\u003eTailored construction and a low to mid rise create a distraction-free wear experience\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe most comfortably minimal underwear youâ€™ll ever wear. The Thong is cut with the same flattering back V shape as our Bikini and is totally seamless under clothing. In Satin, it has just the right amount of stretch and sheen.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOffers a seamless appearance under clothing\n\/span\u003e\/li\u003e li\u003espan\u003eSatin blends softness and stretch, maintaining a smooth sensation against the skin\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eFits true to size \/li\u003eli\u003eTailored construction and a low to mid rise create a distraction-free wear experience\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>p\u003e84% Polyamide 16% Lycra\/p\u003ep\u003eMachine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eInspired by an icon, the Lauren Set features the Plunge and Highwaist. In sheer, sexy Power Mesh and soft, breathable Modal, they bring stylish support and elevated comfort to your first layer. Choose your favorite color from our collection.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003eSet includes the Plunge and Highwaist\/span\u003e\/li\u003e li\u003espan\u003eThe Plunge is a pared-down, deep V silhouette made for sheer, sexy support\/span\u003e\/li\u003e li\u003espan\u003eThe Highwaist is a high rise, high cut style that with cheeky back end coverage\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>p\u003e Mesh: 79% Nylon\/21% Spandex\/p\u003e\np\u003e Mesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Jess Set features the Balconette and Highwaist. Two vintage-inspired silhouettes defined by stylish lines and a flattering fit in sheer, sexy Power Mesh and soft, breathable Modal. Choose your favorite color from our collection.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003eSet includes the Balconette and Highwaist\/span\u003e\/li\u003e li\u003espan\u003eThe Balconette is a bold style statement that iconically frames, flatters, and shapes\/span\u003e\/li\u003e li\u003espan\u003eThe Highwaist is a high rise, high cut style with cheeky back end coverage\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Joanna Set features the Plunge and Thong. The bold lines and sheer, sexy support of the Plunge complements the minimal coverage of the Thong for a modern and comfortable everyday foundation. Choose your favorite color from our collection.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003eSet includes the Plunge and Thong\/span\u003e\/li\u003e li\u003espan\u003eThe Plunge is a pared-down, deep V silhouette made for sheer, sexy support\/span\u003e\/li\u003e li\u003espan\u003eThe Thong is a mid rise style that offers a seamless appearance under clothing\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Thong means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Stella Set features the Balconette and Highwaist. Two vintage-inspired silhouettes defined by stylish lines and a flattering fit in sheer, sexy Power Mesh and soft, breathable Modal. Choose your favorite color from our collection.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003eSet includes the Balconette and Highwaist\/span\u003e\/li\u003e li\u003espan\u003eThe Balconette is a bold style statement that iconically frames, flatters, and shapes\/span\u003e\/li\u003e li\u003espan\u003eThe Highwaist is a high rise, high cut style with cheeky back end coverage\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Balconette features sewn, not molded, cups with a darted seam for natural shaping\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe luxurious construction of the Highwaist means a no-dent, high-stretch waistband that’s distraction-free\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003ep\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eThe Blue Set features the Plunge and String Thong. Two of our most minimal styles with natural shaping and flattering, modern lines in sheer, sexy Power Mesh and soft, breathable Modal. Choose your favorite color from our collection.\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003eSet includes the Plunge and String Thong\/span\u003e\/li\u003e li\u003espan\u003eThe Plunge is a pared-down, deep V silhouette made for sheer, sexy support\/span\u003e\/li\u003e li\u003espan\u003eThe String Thong offers our most minimal side and back end coverage for a seamless appearance under clothing\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eThe Plunge supports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eAdjustable straps set with gold patent-pending hardware and a triple hook-and-eye ensure proper fit\/li\u003eli\u003eThe elevated construction of the String Thong means a comfortable, stay-in-place waistband with secure bikini area coverage that doesn’t dig\/li\u003e li\u003eMake sure you have your correct CUUP size by taking our a href=\"https:\/\/shopcuup.com\/pages\/fit-quiz?quiz=7174\u0026quiz_session=b226248f-b065-4e84-8959-6db03d8001b3\"\u003eFit Quiz.\/a\u003e\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>p\u003eMesh: 79% Nylon\/21% Spandex\/p\u003e\np\u003eMesh care: Machine wash delicate or hand wash cold. Do not bleach. Lay flat dry.\/p\u003e\np\u003eModal: 88% Modal\/12% Elastane\/p\u003e\np\u003eModal care: Machine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Sustainably made for stylish layering, our fishnet tights feature an iconic pattern and are knit from ECONYL® regenerated nylon.br data-mce-fragment=Micro pattern, open-knit construction is ideal for versatility and ease of wearECONYL® regenerated nylon is created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eDesigned with a high rise to sit at or above the belly button\/li\u003eli\u003eSoft, elasticated waistband sits flat without rolling or digging in for stay-in-place comfort\/li\u003eli\u003eFit is based on a shared sizing chart with our underwear; size up or down depending on height\/li\u003eli\u003eMolly is wearing a Medium\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>p\u003e82%  ECONYL® regenerated nylon 12% Elastane\/p\u003ep\u003eMachine or hand wash cold. Lay flat to dry.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003eIncludes three pairs of the Thong in Modal (Black, Taupe, Sand)\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>p\u003e\/p\u003e"</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>p\u003espan style=\"font-weight: 400;\"\u003eA minimal coverage, mid rise silhouette. The Thong is cut with the same flattering back V shape as our Bikini.\/span\u003e\/p\u003e\nul\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMinimal back end coverage, offers a seamless appearance under clothing\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eMade from Modal for superior softness and breathability\/span\u003e\/li\u003e\nli style=\"font-weight: 400;\"\u003espan style=\"font-weight: 400;\"\u003eAntimicrobial bamboo lining wicks moisture and keeps you comfortable\/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003eMid rise cut can be styled to sit high, or low across the hips\/li\u003eli\u003eLuxurious construction means a no-dent, high-stretch waistband that's distraction-free\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>p\u003e88% Modal\/12% Elastane\/p\u003ep\u003eMachine wash delicate or hand wash warm. Do not bleach. Dry low heat.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eCurved, sculpted support at its finest. This inventive silhouette is made to accentuate your natural form, while being a comfortably forgettable, made-for-movement Swim top.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nA rounded neckline and curved silhouette seamlessly extend into the straps for ultimate flexibility and all-day support\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDefined by graphic, curve-flattering lines. This high rise, high hip style offers cheeky coverage thatâ€™s chic and stays where it should. \n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nCheeky back end with minimal hip and side coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eA high rise and graphic, sculpted lines flatter the hips and elongate the legs\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eMade for minimal, sexy support. A naturally shaping and flattering deep V silhouette makes the Swim Plunge an easy-to-wear style for all-day, everyday wear.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering, graphic lines\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eLess coverage for maximum sun. This low rise Swim bottom is our go-to style for flattering, sculpted lines and minimal coverage.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOur most minimal hip and back coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eLow rise cut hits right at the hip with flattering, sculpted lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA modern classic, optimized for Swim. This silhouetteâ€™s iconic wide set straps and straight neckline are translated into a moveable, made-to-fit Swim top for stylish support in and out of the water.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide-set straps and a straight neckline with cups that flatter, gently lift, and separate\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA timeless cut made modern. A true mid rise silhouette that you can feel comfortable moving in, the Swim Brief flaunts full coverage and hip-flattering lines.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nFull back end coverage \n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit.If you are between sizes, we suggest sizing up \/li\u003eli\u003eMid rise cut that sits below the belly button with sculpted hip and bikini lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eCurved, sculpted support at its finest. This inventive silhouette is made to accentuate your natural form, while being a comfortably forgettable, made-for-movement Swim top.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nA rounded neckline and curved silhouette seamlessly extend into the straps for ultimate flexibility and all-day support\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA vintage-inspired, universally flattering cut. The Swim Tap's high rise offers fuller back end and hip coverage, so you can feel free to move without hesitation.\/span\u003e\/p\u003e\nul\u003e\/ul\u003e\nul\u003e\nli\u003espan\u003e Our fullest hip and back coverage \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSits high on the waist with stylish lines for a universally flattering fit\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eMade for minimal, sexy support. A naturally shaping and flattering deep V silhouette makes the Swim Plunge an easy-to-wear style for all-day, everyday wear.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering, graphic lines\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDefined by graphic, curve-flattering lines. This high rise, high hip style offers cheeky coverage thatâ€™s chic and stays where it should. \n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nCheeky back end with minimal hip and side coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eA high rise and graphic, sculpted lines flatter the hips and elongate the legs\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eCurved, sculpted support at its finest. This inventive silhouette is made to accentuate your natural form, while being a comfortably forgettable, made-for-movement Swim top.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nA rounded neckline and curved silhouette seamlessly extend into the straps for ultimate flexibility and all-day support\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eLess coverage for maximum sun. This low rise Swim bottom is our go-to style for flattering, sculpted lines and minimal coverage.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOur most minimal hip and back coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eLow rise cut hits right at the hip with flattering, sculpted lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA modern classic, optimized for Swim. This silhouette’s iconic wide set straps and straight neckline are translated into a moveable, made-to-fit Swim top for stylish support in and out of the water.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide-set straps and a straight neckline with cups that flatter, gently lift, and separate\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA vintage-inspired, universally flattering cut. The Swim Tap's high rise offers fuller back end and hip coverage, so you can feel free to move without hesitation.\/span\u003e\/p\u003e\nul\u003e\/ul\u003e\nul\u003e\nli\u003espan\u003e Our fullest hip and back coverage \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSits high on the waist with stylish lines for a universally flattering fit\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA timeless cut made modern. A true mid rise silhouette that you can feel comfortable moving in, the Swim Brief flaunts full coverage and hip-flattering lines.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nFull back end coverage \n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit.If you are between sizes, we suggest sizing up \/li\u003eli\u003eMid rise cut that sits below the belly button with sculpted hip and bikini lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDefined by graphic, curve-flattering lines. This high rise, high hip style offers cheeky coverage that’s chic and stays where it should. \n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nCheeky back end with minimal hip and side coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eA high rise and graphic, sculpted lines flatter the hips and elongate the legs\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA modern classic, optimized for Swim. This silhouetteâ€™s iconic wide set straps and straight neckline are translated into a moveable, made-to-fit Swim top for stylish support in and out of the water.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide-set straps and a straight neckline with cups that flatter, gently lift, and separate\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eLess coverage for maximum sun. This low rise Swim bottom is our go-to style for flattering, sculpted lines and minimal coverage.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOur most minimal hip and back coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eLow rise cut hits right at the hip with flattering, sculpted lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eMade for minimal, sexy support. A naturally shaping and flattering deep V silhouette makes the Swim Plunge an easy-to-wear style for all-day, everyday wear.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering, graphic lines\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDefined by graphic, curve-flattering lines. This high rise, high hip style offers cheeky coverage thatâ€™s chic and stays where it should. \n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nCheeky back end with minimal hip and side coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eA high rise and graphic, sculpted lines flatter the hips and elongate the legs\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eLess coverage for maximum sun. This low rise Swim bottom is our go-to style for flattering, sculpted lines and minimal coverage.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOur most minimal hip and back coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eLow rise cut hits right at the hip with flattering, sculpted lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA modern classic, optimized for Swim. This silhouetteâ€™s iconic wide set straps and straight neckline are translated into a moveable, made-to-fit Swim top for stylish support in and out of the water.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide-set straps and a straight neckline with cups that flatter, gently lift, and separate\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA timeless cut made modern. A true mid rise silhouette that you can feel comfortable moving in, the Swim Brief flaunts full coverage and hip-flattering lines.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nFull back end coverage \n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up\/li\u003eli\u003eMid rise cut that sits below the belly button with sculpted hip and bikini lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA vintage-inspired, universally flattering cut. The Swim Tap's high rise offers fuller back end and hip coverage, so you can feel free to move without hesitation.\/span\u003e\/p\u003e\nul\u003e\/ul\u003e\nul\u003e\nli\u003espan\u003e Our fullest hip and back coverage \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSits high on the waist with stylish lines for a universally flattering fit\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eCurved, sculpted support at its finest. This inventive silhouette is made to accentuate your natural form, while being a comfortably forgettable, made-for-movement Swim top.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nA rounded neckline and curved silhouette seamlessly extend into the straps for ultimate flexibility and all-day support\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA timeless cut made modern. A true mid rise silhouette that you can feel comfortable moving in, the Swim Brief flaunts full coverage and hip-flattering lines.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nFull back end coverage \n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up\/li\u003eli\u003eMid rise cut that sits below the belly button with sculpted hip and bikini lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA vintage-inspired, universally flattering cut. The Swim Tap's high rise offers fuller back end and hip coverage, so you can feel free to move without hesitation.\/span\u003e\/p\u003e\nul\u003e\/ul\u003e\nul\u003e\nli\u003espan\u003e Our fullest hip and back coverage \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSits high on the waist with stylish lines for a universally flattering fit\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eMade for minimal, sexy support. A naturally shaping and flattering deep V silhouette makes the Swim Plunge an easy-to-wear style for all-day, everyday wear.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering, graphic lines\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA modern classic, optimized for Swim. This silhouette’s iconic wide set straps and straight neckline are translated into a moveable, made-to-fit Swim top for stylish support in and out of the water.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide-set straps and a straight neckline with cups that flatter, gently lift, and separate \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA vintage-inspired, universally flattering cut. The Swim Tap's high rise offers fuller back end and hip coverage, so you can feel free to move without hesitation.\/span\u003e\/p\u003e\nul\u003e\/ul\u003e\nul\u003e\nli\u003espan\u003e Our fullest hip and back coverage \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSits high on the waist with stylish lines for a universally flattering fit\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA timeless cut made modern. A true mid rise silhouette that you can feel comfortable moving in, the Swim Brief flaunts full coverage and hip-flattering lines.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nFull back end coverage \n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up\/li\u003eli\u003eMid rise cut that sits below the belly button with sculpted hip and bikini lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDefined by graphic, curve-flattering lines. This high rise, high hip style offers cheeky coverage that’s chic and stays where it should.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Cheeky back end with minimal hip and side coverage \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eA high rise and graphic, sculpted lines flatter the hips and elongate the legs\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eLess coverage for maximum sun. This low rise Swim bottom is our go-to style for flattering, sculpted lines and minimal coverage.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOur most minimal hip and back coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eLow rise cut hits right at the hip with flattering, sculpted lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eCurved, sculpted support at its finest. This inventive silhouette is made to accentuate your natural form, while being a comfortably forgettable, made-for-movement Swim top.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nA rounded neckline and curved silhouette seamlessly extend into the straps for ultimate flexibility and all-day support\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA modern classic, optimized for Swim. This silhouette’s iconic wide set straps and straight neckline are translated into a moveable, made-to-fit Swim top for stylish support in and out of the water.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide-set straps and a straight neckline with cups that flatter, gently lift, and separate \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA timeless cut made modern. A true mid rise silhouette that you can feel comfortable moving in, the Swim Brief flaunts full coverage and hip-flattering lines.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nFull back end coverage \n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eMid rise cut that sits below the belly button with sculpted hip and bikini lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDefined by graphic, curve-flattering lines. This high rise, high hip style offers cheeky coverage that’s chic and stays where it should.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Cheeky back end with minimal hip and side coverage \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eA high rise and graphic, sculpted lines flatter the hips and elongate the legs\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eLess coverage for maximum sun. This low rise Swim bottom is our go-to style for flattering, sculpted lines and minimal coverage.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOur most minimal hip and back coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eLow rise cut hits right at the hip with flattering, sculpted lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eCurved, sculpted support at its finest. This inventive silhouette is made to accentuate your natural form, while being a comfortably forgettable, made-for-movement Swim top.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nA rounded neckline and curved silhouette seamlessly extend into the straps for ultimate flexibility and all-day support\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA vintage-inspired, universally flattering cut. The Swim Tap's high rise offers fuller back end and hip coverage, so you can feel free to move without hesitation.\/span\u003e\/p\u003e\nul\u003e\/ul\u003e\nul\u003e\nli\u003espan\u003e Our fullest hip and back coverage \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSits high on the waist with stylish lines for a universally flattering fit\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA modern classic, optimized for Swim. This silhouette’s iconic wide set straps and straight neckline are translated into a moveable, made-to-fit Swim top for stylish support in and out of the water.\/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Wide-set straps and a straight neckline with cups that flatter, gently lift, and separate \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA timeless cut made modern. A true mid rise silhouette that you can feel comfortable moving in, the Swim Brief flaunts full coverage and hip-flattering lines.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nFull back end coverage \n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eMid rise cut that sits below the belly button with sculpted hip and bikini lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDefined by graphic, curve-flattering lines. This high rise, high hip style offers cheeky coverage that’s chic and stays where it should. \n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nCheeky back end with minimal hip and side coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eA high rise and graphic, sculpted lines flatter the hips and elongate the legs\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eLess coverage for maximum sun. This low rise Swim bottom is our go-to style for flattering, sculpted lines and minimal coverage.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOur most minimal hip and back coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eLow rise cut hits right at the hip with flattering, sculpted lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA vintage-inspired, universally flattering cut. The Swim Tap’s high rise offers fuller back end and hip coverage, so you can feel free to move without hesitation.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOur fullest hip and back coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSits high on the waist with stylish lines for a universally flattering fit\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA modern classic, optimized for Swim. This silhouette’s iconic wide set straps and straight neckline are translated into a moveable, made-to-fit Swim top for stylish support in and out of the water.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nWide-set straps and a straight neckline with cups that flatter, gently lift, and separate\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for more bottom-heavy boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA timeless cut made modern. A true mid rise silhouette that you can feel comfortable moving in, the Swim Brief flaunts full coverage and hip-flattering lines.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nFull back end coverage \n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eMid rise cut that sits below the belly button with sculpted hip and bikini lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eDefined by graphic, curve-flattering lines. This high rise, high hip style offers cheeky coverage that’s chic and stays where it should. \n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nCheeky back end with minimal hip and side coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eA high rise and graphic, sculpted lines flatter the hips and elongate the legs\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eLess coverage for maximum sun. This low rise Swim bottom is our go-to style for flattering, sculpted lines and minimal coverage.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nOur most minimal hip and back coverage\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eLow rise cut hits right at the hip with flattering, sculpted lines\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eMade for minimal, sexy support. A naturally shaping and flattering deep V silhouette makes the Swim Plunge an easy-to-wear style for all-day, everyday wear.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering, graphic lines\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eMade for minimal, sexy support. A naturally shaping and flattering deep V silhouette makes the Swim Plunge an easy-to-wear style for all-day, everyday wear.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering, graphic lines\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eMade for minimal, sexy support. A naturally shaping and flattering deep V silhouette makes the Swim Plunge an easy-to-wear style for all-day, everyday wear.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering, graphic lines\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eCurved, sculpted support at its finest. This inventive silhouette is made to accentuate your natural form, while being a comfortably forgettable, made-for-movement Swim top.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nA rounded neckline and curved silhouette seamlessly extend into the straps for ultimate flexibility and all-day support\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eMade for minimal, sexy support. A naturally shaping and flattering deep V silhouette makes the Swim Plunge an easy-to-wear style for all-day, everyday wear.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nDeep V silhouette creates natural shaping and flattering, graphic lines\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSupports all CUUP sizes comfortably, but may be better for rounder boob shapes\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eCurved, sculpted support at its finest. This inventive silhouette is made to accentuate your natural form, while being a comfortably forgettable, made-for-movement Swim top.\n\/span\u003e\/p\u003eul\u003e\nli\u003espan\u003e\nA rounded neckline and curved silhouette seamlessly extend into the straps for ultimate flexibility and all-day support\n\/span\u003e\/li\u003e li\u003espan\u003eIn collaboration with ECONYL®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \n\/span\u003e\/li\u003e li\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection\n\/span\u003e\/li\u003e li\u003espan\u003eLightweight underwire is flexible and distraction-free: no poking, no digging\n\/span\u003e\/li\u003e\n\/ul\u003eul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eOur most universally fit-forgiving and supportive silhouette\/li\u003eli\u003eCustomized CUUP Slide \u0026 Set™ back closure system offers a better fit with band adjustability \/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>p\u003espan\u003eA vintage-inspired, universally flattering cut. The Swim Tap's high rise offers fuller back end and hip coverage, so you can feel free to move without hesitation. \/span\u003e\/p\u003e\nul\u003e\nli\u003espan\u003e Our fullest hip and back coverage \/span\u003espan\u003eIn collaboration with ECONYL ®, our high-performance regenerated nylon was created using fishing nets pulled straight from the sea, along with discarded fabrics, and recycled nylon \/span\u003espan\u003eMaterial is chlorine, salt water, sunscreen and fade resistant with UPF 50 protection \/span\u003e\/li\u003e\n\/ul\u003e\nul\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>ul\u003eli\u003ePlease refer to our size chart to find your best fit. If you are between sizes, we suggest sizing up \/li\u003eli\u003eSits high on the waist with stylish lines for a universally flattering fit\/li\u003eli\u003eStretchy and smoothing regenerated nylon feels incredibly soft, keeps it shape, and doesn’t dig\/li\u003e\/ul\u003e"</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>p\u003e78% Recycled ECONYL\u0026reg; Polyamide, 22% Elastane\/p\u003ep\u003eHand wash cold. Lay flat dry. Do not bleach.\/p\u003e"</t>
         </is>
       </c>
     </row>
